--- a/python/end_of_term/subject/data.xlsx
+++ b/python/end_of_term/subject/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMMO\Desktop\github\nothing\python\end_of_term\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMMO\Desktop\github\nothing\python\end_of_term\subject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B822D7-D260-4854-82AA-BFD745D6FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15740FF-E8C9-4F0F-9AC2-EAA9B3659DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8DE4D61-D3A3-4B21-8181-AB2FC46FED75}"/>
   </bookViews>
@@ -37,27 +37,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>面积(万平方千米）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人口(第七次全国人口普查)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GDP（2022，亿元）</t>
+    <t>医疗卫生机构数目（2021.11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本科生录取率（2021，%）</t>
+    <t>面积(平方千米）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车辆数(2022,万)</t>
+    <t>GDP（2022）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>医疗卫生机构数目（2021.11）</t>
+    <t>本科生录取率（2021）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆数(2022)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -451,642 +451,642 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>47.3</v>
+        <v>473000</v>
       </c>
       <c r="B2">
         <v>31350088</v>
       </c>
       <c r="C2">
-        <v>15901</v>
+        <v>1590100000000</v>
       </c>
       <c r="D2">
         <v>20893</v>
       </c>
       <c r="E2">
-        <v>22.39</v>
+        <v>0.22389999999999999</v>
       </c>
       <c r="F2">
-        <v>606</v>
+        <v>6060000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>18.739999999999998</v>
+        <v>187399.99999999997</v>
       </c>
       <c r="B3">
         <v>24073453</v>
       </c>
       <c r="C3">
-        <v>13070</v>
+        <v>1307000000000</v>
       </c>
       <c r="D3">
         <v>25462</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F3">
-        <v>521</v>
+        <v>5210000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>14.59</v>
+        <v>145900</v>
       </c>
       <c r="B4">
         <v>42591407</v>
       </c>
       <c r="C4">
-        <v>28975</v>
+        <v>2897500000000</v>
       </c>
       <c r="D4">
         <v>34479</v>
       </c>
       <c r="E4">
-        <v>55.95</v>
+        <v>0.5595</v>
       </c>
       <c r="F4">
-        <v>936</v>
+        <v>9360000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>18.77</v>
+        <v>187700</v>
       </c>
       <c r="B5">
         <v>74610235</v>
       </c>
       <c r="C5">
-        <v>42370</v>
+        <v>4237000000000</v>
       </c>
       <c r="D5">
         <v>88822</v>
       </c>
       <c r="E5">
-        <v>41.01</v>
+        <v>0.41010000000000002</v>
       </c>
       <c r="F5">
-        <v>1715</v>
+        <v>17150000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>45.44</v>
+        <v>454400</v>
       </c>
       <c r="B6">
         <v>25019831</v>
       </c>
       <c r="C6">
-        <v>11202</v>
+        <v>1120200000000</v>
       </c>
       <c r="D6">
         <v>26156</v>
       </c>
       <c r="E6">
-        <v>48.6</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="F6">
-        <v>433</v>
+        <v>4330000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>72.23</v>
+        <v>722300</v>
       </c>
       <c r="B7">
         <v>5923957</v>
       </c>
       <c r="C7">
-        <v>3610</v>
+        <v>361000000000</v>
       </c>
       <c r="D7">
         <v>6482</v>
       </c>
       <c r="E7">
-        <v>50.02</v>
+        <v>0.50019999999999998</v>
       </c>
       <c r="F7">
-        <v>189</v>
+        <v>1890000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20.56</v>
+        <v>205600</v>
       </c>
       <c r="B8">
         <v>39528999</v>
       </c>
       <c r="C8">
-        <v>32773</v>
+        <v>3277300000000</v>
       </c>
       <c r="D8">
         <v>35382</v>
       </c>
       <c r="E8">
-        <v>22.15</v>
+        <v>0.2215</v>
       </c>
       <c r="F8">
-        <v>741</v>
+        <v>7410000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>16.7</v>
+        <v>167000</v>
       </c>
       <c r="B9">
         <v>99365519</v>
       </c>
       <c r="C9">
-        <v>61345</v>
+        <v>6134500000000</v>
       </c>
       <c r="D9">
         <v>78194</v>
       </c>
       <c r="E9">
-        <v>40.64</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="F9">
-        <v>1765</v>
+        <v>17650000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>15.38</v>
+        <v>153800</v>
       </c>
       <c r="B10">
         <v>101527453</v>
       </c>
       <c r="C10">
-        <v>87435</v>
+        <v>8743500000000</v>
       </c>
       <c r="D10">
         <v>86684</v>
       </c>
       <c r="E10">
-        <v>37.03</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="F10">
-        <v>2525</v>
+        <v>25250000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15.63</v>
+        <v>156300</v>
       </c>
       <c r="B11">
         <v>34915616</v>
       </c>
       <c r="C11">
-        <v>25643</v>
+        <v>2564300000000</v>
       </c>
       <c r="D11">
         <v>41925</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="F11">
-        <v>796</v>
+        <v>7960000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13.97</v>
+        <v>139700</v>
       </c>
       <c r="B12">
         <v>61027171</v>
       </c>
       <c r="C12">
-        <v>45045</v>
+        <v>4504500000000</v>
       </c>
       <c r="D12">
         <v>29450</v>
       </c>
       <c r="E12">
-        <v>41.99</v>
+        <v>0.4199</v>
       </c>
       <c r="F12">
-        <v>1065</v>
+        <v>10650000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>18.59</v>
+        <v>185900</v>
       </c>
       <c r="B13">
         <v>57752557</v>
       </c>
       <c r="C13">
-        <v>53735</v>
+        <v>5373500000000</v>
       </c>
       <c r="D13">
         <v>36402</v>
       </c>
       <c r="E13">
-        <v>42.1</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="F13">
-        <v>1126</v>
+        <v>11260000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>21.18</v>
+        <v>211800</v>
       </c>
       <c r="B14">
         <v>66444864</v>
       </c>
       <c r="C14">
-        <v>48670</v>
+        <v>4867000000000</v>
       </c>
       <c r="D14">
         <v>56610</v>
       </c>
       <c r="E14">
-        <v>31.61</v>
+        <v>0.31609999999999999</v>
       </c>
       <c r="F14">
-        <v>1159</v>
+        <v>11590000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10.26</v>
+        <v>102600</v>
       </c>
       <c r="B15">
         <v>94748016</v>
       </c>
       <c r="C15">
-        <v>122875</v>
+        <v>12287500000000</v>
       </c>
       <c r="D15">
         <v>26707</v>
       </c>
       <c r="E15">
-        <v>59.22</v>
+        <v>0.59219999999999995</v>
       </c>
       <c r="F15">
-        <v>2193</v>
+        <v>21930000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>48.14</v>
+        <v>481400</v>
       </c>
       <c r="B16">
         <v>83674366</v>
       </c>
       <c r="C16">
-        <v>56705</v>
+        <v>5670500000000</v>
       </c>
       <c r="D16">
         <v>83211</v>
       </c>
       <c r="E16">
-        <v>33.18</v>
+        <v>0.33179999999999998</v>
       </c>
       <c r="F16">
-        <v>1433</v>
+        <v>14330000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17.600000000000001</v>
+        <v>176000</v>
       </c>
       <c r="B17">
         <v>38562148</v>
       </c>
       <c r="C17">
-        <v>20165</v>
+        <v>2016500000000</v>
       </c>
       <c r="D17">
         <v>29298</v>
       </c>
       <c r="E17">
-        <v>37.979999999999997</v>
+        <v>0.37980000000000003</v>
       </c>
       <c r="F17">
-        <v>596</v>
+        <v>5960000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>38.33</v>
+        <v>383300</v>
       </c>
       <c r="B18">
         <v>47209277</v>
       </c>
       <c r="C18">
-        <v>28954</v>
+        <v>2895400000000</v>
       </c>
       <c r="D18">
         <v>26067</v>
       </c>
       <c r="E18">
-        <v>39.520000000000003</v>
+        <v>0.3952</v>
       </c>
       <c r="F18">
-        <v>835</v>
+        <v>8350000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10.199999999999999</v>
+        <v>102000</v>
       </c>
       <c r="B19">
         <v>64567588</v>
       </c>
       <c r="C19">
-        <v>77715</v>
+        <v>7771500000000</v>
       </c>
       <c r="D19">
         <v>35477</v>
       </c>
       <c r="E19">
-        <v>59.72</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="F19">
-        <v>1789</v>
+        <v>17890000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16.7</v>
+        <v>167000</v>
       </c>
       <c r="B20">
         <v>45188635</v>
       </c>
       <c r="C20">
-        <v>32075</v>
+        <v>3207500000000</v>
       </c>
       <c r="D20">
         <v>36808</v>
       </c>
       <c r="E20">
-        <v>36.270000000000003</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="F20">
-        <v>707</v>
+        <v>7070000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>18</v>
+        <v>180000</v>
       </c>
       <c r="B21">
         <v>126012510</v>
       </c>
       <c r="C21">
-        <v>129119</v>
+        <v>12911900000000</v>
       </c>
       <c r="D21">
         <v>58340</v>
       </c>
       <c r="E21">
-        <v>51.28</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="F21">
-        <v>3061</v>
+        <v>30610000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>12.13</v>
+        <v>121300.00000000001</v>
       </c>
       <c r="B22">
         <v>41540086</v>
       </c>
       <c r="C22">
-        <v>53110</v>
+        <v>5311000000000</v>
       </c>
       <c r="D22">
         <v>28948</v>
       </c>
       <c r="E22">
-        <v>66.819999999999993</v>
+        <v>0.66820000000000002</v>
       </c>
       <c r="F22">
-        <v>993</v>
+        <v>9930000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3.4</v>
+        <v>34000</v>
       </c>
       <c r="B23">
         <v>10081232</v>
       </c>
       <c r="C23">
-        <v>6818</v>
+        <v>681800000000</v>
       </c>
       <c r="D23">
         <v>6275</v>
       </c>
       <c r="E23">
-        <v>71.67</v>
+        <v>0.7167</v>
       </c>
       <c r="F23">
-        <v>210</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>166</v>
+        <v>1660000</v>
       </c>
       <c r="B24">
         <v>25852345</v>
       </c>
       <c r="C24">
-        <v>17741</v>
+        <v>1774100000000</v>
       </c>
       <c r="D24">
         <v>18072</v>
       </c>
       <c r="E24">
-        <v>37.25</v>
+        <v>0.3725</v>
       </c>
       <c r="F24">
-        <v>507</v>
+        <v>5070000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>118.3</v>
+        <v>1183000</v>
       </c>
       <c r="B25">
         <v>24049155</v>
       </c>
       <c r="C25">
-        <v>23159</v>
+        <v>2315900000000</v>
       </c>
       <c r="D25">
         <v>24943</v>
       </c>
       <c r="E25">
-        <v>51.26</v>
+        <v>0.51259999999999994</v>
       </c>
       <c r="F25">
-        <v>660</v>
+        <v>6600000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6.64</v>
+        <v>66400</v>
       </c>
       <c r="B26">
         <v>7202654</v>
       </c>
       <c r="C26">
-        <v>5070</v>
+        <v>507000000000</v>
       </c>
       <c r="D26">
         <v>4551</v>
       </c>
       <c r="E26">
-        <v>40.200000000000003</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F26">
-        <v>228</v>
+        <v>2280000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23.6</v>
+        <v>236000</v>
       </c>
       <c r="B27">
         <v>50126804</v>
       </c>
       <c r="C27">
-        <v>26301</v>
+        <v>2630100000000</v>
       </c>
       <c r="D27">
         <v>34616</v>
       </c>
       <c r="E27">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="F27">
-        <v>768</v>
+        <v>7680000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>122.8</v>
+        <v>1228000</v>
       </c>
       <c r="B28">
         <v>3648100</v>
       </c>
       <c r="C28">
-        <v>2133</v>
+        <v>213300000000</v>
       </c>
       <c r="D28">
         <v>6951</v>
       </c>
       <c r="E28">
-        <v>36.299999999999997</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="F28">
-        <v>116</v>
+        <v>1160000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1.68</v>
+        <v>16800</v>
       </c>
       <c r="B29">
         <v>21893095</v>
       </c>
       <c r="C29">
-        <v>41611</v>
+        <v>4161100000000</v>
       </c>
       <c r="D29">
         <v>11170</v>
       </c>
       <c r="E29">
-        <v>55.21</v>
+        <v>0.55210000000000004</v>
       </c>
       <c r="F29">
-        <v>691</v>
+        <v>6910000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.63</v>
+        <v>6300</v>
       </c>
       <c r="B30">
         <v>24870895</v>
       </c>
       <c r="C30">
-        <v>44653</v>
+        <v>4465300000000</v>
       </c>
       <c r="D30">
         <v>6334</v>
       </c>
       <c r="E30">
-        <v>66.459999999999994</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="F30">
-        <v>744</v>
+        <v>7440000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1.1000000000000001</v>
+        <v>11000</v>
       </c>
       <c r="B31">
         <v>13866009</v>
       </c>
       <c r="C31">
-        <v>16311</v>
+        <v>1631100000000</v>
       </c>
       <c r="D31">
         <v>6350</v>
       </c>
       <c r="E31">
-        <v>67.98</v>
+        <v>0.67979999999999996</v>
       </c>
       <c r="F31">
-        <v>411</v>
+        <v>4110000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8.23</v>
+        <v>82300</v>
       </c>
       <c r="B32">
         <v>32054159</v>
       </c>
       <c r="C32">
-        <v>29129</v>
+        <v>2912900000000</v>
       </c>
       <c r="D32">
         <v>21662</v>
       </c>
       <c r="E32">
-        <v>42.21</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="F32">
-        <v>693</v>
+        <v>6930000</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
